--- a/paper/result_graphs.xlsx
+++ b/paper/result_graphs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericv\Documents\Projects\SW9_Latex\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,12 +144,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -405,11 +406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406818072"/>
-        <c:axId val="406819248"/>
+        <c:axId val="351526448"/>
+        <c:axId val="351522136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406818072"/>
+        <c:axId val="351526448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -484,12 +485,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406819248"/>
+        <c:crossAx val="351522136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406819248"/>
+        <c:axId val="351522136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406818072"/>
+        <c:crossAx val="351526448"/>
         <c:crossesAt val="0.9"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,12 +781,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1029,11 +1031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406827480"/>
-        <c:axId val="406819640"/>
+        <c:axId val="351517040"/>
+        <c:axId val="351516256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406827480"/>
+        <c:axId val="351517040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -1108,12 +1110,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406819640"/>
+        <c:crossAx val="351516256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406819640"/>
+        <c:axId val="351516256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406827480"/>
+        <c:crossAx val="351517040"/>
         <c:crossesAt val="0.9"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,12 +1360,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1607,11 +1610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408038472"/>
-        <c:axId val="408040824"/>
+        <c:axId val="351522920"/>
+        <c:axId val="351515080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408038472"/>
+        <c:axId val="351522920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -1686,12 +1689,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408040824"/>
+        <c:crossAx val="351515080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408040824"/>
+        <c:axId val="351515080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408038472"/>
+        <c:crossAx val="351522920"/>
         <c:crossesAt val="0.9"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1936,12 +1939,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1955,64 +1959,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>(Data!$C$15,Data!$E$15,Data!$G$15,Data!$I$15)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>159.88</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>31.74</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>74.010000000000005</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>157.68</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>(Data!$C$15,Data!$E$15,Data!$G$15,Data!$I$15)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>159.88</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>31.74</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>74.010000000000005</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>157.68</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>(Data!$C$1,Data!$E$1,Data!$G$1,Data!$I$1)</c:f>
@@ -2087,64 +2033,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>(Data!$B$15,Data!$D$15,Data!$F$15,Data!$H$15)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>140.87</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>81.84</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>151.36000000000001</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>(Data!$B$15,Data!$D$15,Data!$F$15,Data!$H$15)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>140.87</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>81.84</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>151.36000000000001</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>(Data!$B$1,Data!$D$1,Data!$F$1,Data!$H$1)</c:f>
@@ -2200,12 +2088,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2213,70 +2102,12 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>(Data!$C$16,Data!$E$16,Data!$G$16,Data!$I$16)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>104.18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22.37</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>34.21</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>73.75</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>(Data!$C$16,Data!$E$16,Data!$G$16,Data!$I$16)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>104.18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22.37</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>34.21</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>73.75</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>(Data!$M$3,Data!$N$3,Data!$O$3,Data!$P$3)</c:f>
@@ -2337,7 +2168,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2351,64 +2182,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>(Data!$B$16,Data!$D$16,Data!$F$16,Data!$H$16)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>110.3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>26.16</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>49.37</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>99.82</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>(Data!$B$16,Data!$D$16,Data!$F$16,Data!$H$16)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>110.3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>26.16</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>49.37</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>99.82</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>(Data!$M$2,Data!$N$2,Data!$O$2,Data!$P$2)</c:f>
@@ -2461,11 +2234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406816504"/>
-        <c:axId val="406822776"/>
+        <c:axId val="351521744"/>
+        <c:axId val="351511552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406816504"/>
+        <c:axId val="351521744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -2540,12 +2313,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406822776"/>
+        <c:crossAx val="351511552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406822776"/>
+        <c:axId val="351511552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,6 +2333,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2658,7 +2432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406816504"/>
+        <c:crossAx val="351521744"/>
         <c:crossesAt val="0.9"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2721,9 +2495,8 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="90000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -6003,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
